--- a/MehdiTava/potential metrics.xlsx
+++ b/MehdiTava/potential metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WRSPOL\Documents\Files\DEV\Upwork\DataExtractionStores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Polzi\Documents\DEV\Upwork\MehdiTava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B95F9B-7AA4-4488-BFAA-AFF2632E5233}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77765BF0-AC3C-406F-AAD7-716830203783}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E321A10E-F485-4335-8914-18B7E6C150AE}"/>
+    <workbookView xWindow="31950" yWindow="3225" windowWidth="16200" windowHeight="11835" xr2:uid="{E321A10E-F485-4335-8914-18B7E6C150AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
   <si>
     <t>metric</t>
   </si>
@@ -276,6 +271,57 @@
   </si>
   <si>
     <t>TOP in collection name</t>
+  </si>
+  <si>
+    <t>col AP</t>
+  </si>
+  <si>
+    <t>col D / E /  F</t>
+  </si>
+  <si>
+    <t>descripton, descriptionHTML, summary</t>
+  </si>
+  <si>
+    <t>col AW</t>
+  </si>
+  <si>
+    <t>col AX</t>
+  </si>
+  <si>
+    <t>col AB</t>
+  </si>
+  <si>
+    <t>col B / col AE</t>
+  </si>
+  <si>
+    <t>col AQ</t>
+  </si>
+  <si>
+    <t>col AS</t>
+  </si>
+  <si>
+    <t>col AR</t>
+  </si>
+  <si>
+    <t>col L</t>
+  </si>
+  <si>
+    <t>col I</t>
+  </si>
+  <si>
+    <t>col AN</t>
+  </si>
+  <si>
+    <t>col AV</t>
+  </si>
+  <si>
+    <t>col J / K</t>
+  </si>
+  <si>
+    <t>col Y / AD</t>
+  </si>
+  <si>
+    <t>col AY / AZ</t>
   </si>
 </sst>
 </file>
@@ -660,18 +706,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -688,55 +736,73 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D6" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -746,24 +812,36 @@
       <c r="C8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D8" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D10" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -773,8 +851,11 @@
       <c r="C11" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -784,152 +865,212 @@
       <c r="C12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D13" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D15" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D20" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D21" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>31</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D22" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D23" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D24" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D25" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D26" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D27" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D28" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D29" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D30" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -939,8 +1080,11 @@
       <c r="C31" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D31" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
@@ -950,8 +1094,11 @@
       <c r="C32" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D32" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
@@ -961,8 +1108,14 @@
       <c r="C33" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D33" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>30</v>
       </c>
@@ -972,24 +1125,33 @@
       <c r="C34" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D34" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D35" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D36" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>39</v>
       </c>
@@ -999,18 +1161,21 @@
       <c r="C37" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D37" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F38" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F40" s="2" t="s">
         <v>40</v>
       </c>
